--- a/詳細設計書/詳細設計書SC_006_005_アクセス_管理画面(金允璟).xlsx
+++ b/詳細設計書/詳細設計書SC_006_005_アクセス_管理画面(金允璟).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4bbc4a2a16167f86/ドキュメント/文章金允/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76eb868b9382442b/ドキュメント/プロジェクト/詳細設計書(金允璟)/詳細設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{9DB4D17F-FBDE-492F-B775-5CF277E36595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{796A1D3F-AC6F-413A-AB65-B2BDCC1EF761}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{19B87260-6C06-4BA5-83DA-6829B4C23473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E1E3BF7-5449-4532-B2A2-9DD15E620829}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DFDD0EAD-734C-4D18-8283-BBE5CED2E47A}"/>
+    <workbookView xWindow="13905" yWindow="390" windowWidth="17265" windowHeight="14475" firstSheet="2" activeTab="3" xr2:uid="{DFDD0EAD-734C-4D18-8283-BBE5CED2E47A}"/>
   </bookViews>
   <sheets>
     <sheet name="イベント一覧" sheetId="4" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="176">
   <si>
     <t>プロセス引数</t>
     <rPh sb="4" eb="6">
@@ -177,19 +177,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>BL</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>3010</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>3020</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -206,55 +198,6 @@
   </si>
   <si>
     <t>org.springframework.uiの「Model」</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>氏名</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>権限</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>部署</t>
-    <rPh sb="0" eb="2">
-      <t>ブショ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>セッション情報のID</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>セッション情報の氏名</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>セッション情報の権限</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>セッション情報の部署</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -268,85 +211,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>作成者ID</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>日付（始）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>日付（終）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>表示行数</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>スタートページ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>画面の日付（始）</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ハジメ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>画面の作成者のID</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>画面の日付（終）</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>画面の表示行数</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ギョウスウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>画面のスタートページ</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>画面情報を取得する。</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -441,22 +305,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>リクエストのID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リクエストの氏名</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リクエストの権限</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リクエストの部署</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>20</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -472,53 +320,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ID、氏名、権限、部署の何れかの情報が存在しない場合</t>
-    <rPh sb="3" eb="5">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブショ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>イズ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>処理を終了し、「お問い合わせ」画面へ遷移する。</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>上記以外の場合は【30】処理を行う。</t>
     <rPh sb="0" eb="2">
       <t>ジョウキ</t>
@@ -544,26 +345,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>リクエストの作成者ID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リクエストの日付（始）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リクエストの日付（終）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リクエストの表示行数</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リクエストのスタートページ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>検索結果を取得する。</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -581,72 +362,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>【1010】で取得したID</t>
-    <rPh sb="7" eb="9">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【1010】で取得した権限</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【1010】で取得した部署</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【3010】で取得した日付（始）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【3010】で取得した日付（終）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【3010】で取得した表示行数</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【3010】で取得したスタートページ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>作業報告書検索結果取得</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>作業報告書検索結果リスト</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>5010</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -661,28 +376,6 @@
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>作業報告書検索結果リスト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>マックスリストNo</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>現在ページ</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>総ページ</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>備考</t>
@@ -702,152 +395,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>【3010】の表示桁数</t>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケタスウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【3010】のスタートページ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【3010】の日付（始）</t>
-    <rPh sb="7" eb="9">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ハジメ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【3010】の日付（終）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【3010】の氏名</t>
-    <rPh sb="7" eb="9">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>作成者ID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【3010】の作成者ID</t>
-    <rPh sb="7" eb="10">
-      <t>サクセイシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リクエストの氏名</t>
-    <rPh sb="6" eb="8">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>画面の現在ページ</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>現在ページ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リクエストの現在ページ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【3010】の現在ページ</t>
-    <rPh sb="7" eb="9">
-      <t>ゲンザイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【4010】で取得したマックスリストNo</t>
-    <rPh sb="7" eb="9">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【4010】で取得した総ページ</t>
-    <rPh sb="7" eb="9">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>40</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【1010】の氏名</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【1010】の権限</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【1010】の部署</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>氏名、権限、部署の何れかの情報が存在しない場合</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ブショ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イズ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「作業報告書照会」画面へ返却する。</t>
-    <rPh sb="1" eb="3">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンキャク</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -883,222 +431,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>権限をチェックし、氏名・部署名を設定する。</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ブショ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>権限が「管理者」の場合</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>検索条件配列を繰返して、氏名リストへ格納する。</t>
-    <rPh sb="7" eb="9">
-      <t>クリカエ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「検索条件配列」生成</t>
-    <rPh sb="1" eb="3">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハイレツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「氏名リスト」生成</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>氏名・部署名を","で区切りし、検索条件配列へ格納する。</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ブショ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>マップへ情報を格納する。</t>
-  </si>
-  <si>
-    <t>マップへ情報を格納する。</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>権限をチェックし、氏名・部署名を格納する。</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ブショ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>権限が「管理者」以外の場合</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>IDを氏名リストへ格納する。</t>
-    <rPh sb="3" eb="5">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>人数</t>
-    <rPh sb="0" eb="1">
-      <t>ニン</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>表示行数</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ギョウスウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>引数の日付（始）</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>引数の日付（終）</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【1010】で取得した氏名リスト</t>
-    <rPh sb="7" eb="9">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【1010】で取得した氏名リストのサイズ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>引数のスタートページ</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>引数の表示行数</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>検索結果を取得する。</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1110,61 +442,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>「検索条件」マップを生成し、情報を格納する。</t>
-    <rPh sb="1" eb="3">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>検索条件</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>年月フォーマットを変換する。</t>
-    <rPh sb="0" eb="2">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヘンカン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【3010】の作業報告書検索結果リストの年月フォーマットを変換する。</t>
-    <rPh sb="20" eb="22">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヘンカン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>YYYYMMDD ➡ YYYY-MM-DD</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>作業報告書検索結果リストを返却する。</t>
-    <rPh sb="13" eb="15">
-      <t>ヘンキャク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>作業報告書検索結果リストを返却する。</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1251,10 +529,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>氏名</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>対象</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
@@ -1273,25 +547,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>権限</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>部署</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>初期表示</t>
-  </si>
-  <si>
-    <t>※「DAO#メイン画面」シート参照</t>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>_</t>
@@ -1617,6 +873,319 @@
     <rPh sb="30" eb="31">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プライマリーキー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リクエストのプライマリーキー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プライマリーキーの何れかの情報が存在しない場合</t>
+    <rPh sb="9" eb="10">
+      <t>イズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>処理を終了し、「メイン」画面へ遷移する。</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【3010】で取得した削除有無</t>
+    <rPh sb="11" eb="15">
+      <t>サクジョウム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【3010】で取得した登録者</t>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【3010】で取得した登録日</t>
+    <rPh sb="11" eb="14">
+      <t>トウロクビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【3010】で取得した修正者</t>
+    <rPh sb="11" eb="14">
+      <t>シュウセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【3010】で取得した修正日</t>
+    <rPh sb="11" eb="14">
+      <t>シュウセイビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセスオブジェクトに格納する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセス＿管理検索結果リストを返却する。</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pin </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセス＿管理検索結果取得</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※「DAO#アクセス＿管理画面」シート参照</t>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセス＿管理結果リスト</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセス＿管理検索結果リストを返却する。</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「アクセス＿管理」画面へ返却する。</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセス＿管理の異動</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセス＿管理の軽度</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセス＿管理のpin名</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセス＿管理の削除有無</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセス＿管理の登録者</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセス＿管理の登録日</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセス＿管理の修正者</t>
+    <rPh sb="8" eb="11">
+      <t>シュウセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセス＿管理の修正日</t>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【3010】で取得した異動</t>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【3010】で取得した軽度</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【3010】で取得したpin名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセス＿管理検索結果リスト</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセス＿管理検索結果リスト</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>緯度の入力欄が空の場合</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>経度の入力欄が空の場合</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pin名の入力欄が空の場合</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>緯度エラーメッセージ</t>
+  </si>
+  <si>
+    <t>経度エラーメッセージ</t>
+  </si>
+  <si>
+    <t>pin名エラーメッセージ</t>
+  </si>
+  <si>
+    <t>I_006_012</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>I_006_013</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>I_006_014</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2069,7 +1638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2441,9 +2010,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2478,36 +2044,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2525,45 +2061,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2573,14 +2070,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2602,6 +2099,117 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3308,10 +2916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34B04DD-5744-4DCB-A8EE-116CD43660AA}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="75" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="AB3" sqref="AB3"/>
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
@@ -3328,16 +2936,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="52" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="168" t="s">
-        <v>117</v>
+        <v>73</v>
+      </c>
+      <c r="D1" s="144" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3346,19 +2954,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="C2" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="161" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
+        <v>75</v>
+      </c>
+      <c r="D2" s="151" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
     </row>
     <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="53">
@@ -3366,59 +2974,59 @@
         <v>2</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="C3" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="161" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
+        <v>75</v>
+      </c>
+      <c r="D3" s="151" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="53">
         <f t="shared" ref="A4:A37" si="0">ROW()-1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="133" t="s">
-        <v>202</v>
+      <c r="B4" s="132" t="s">
+        <v>111</v>
       </c>
       <c r="C4" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="161" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
+        <v>75</v>
+      </c>
+      <c r="D4" s="151" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="53">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="131" t="s">
-        <v>203</v>
+      <c r="B5" s="130" t="s">
+        <v>112</v>
       </c>
       <c r="C5" s="122" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="166" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
+        <v>76</v>
+      </c>
+      <c r="D5" s="142" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
     </row>
     <row r="6" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="53">
@@ -3426,19 +3034,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="118" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="C6" s="122" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="161" t="s">
-        <v>219</v>
-      </c>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
+        <v>121</v>
+      </c>
+      <c r="D6" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
     </row>
     <row r="7" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="53">
@@ -3446,19 +3054,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="118" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="C7" s="122" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="161" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
+        <v>76</v>
+      </c>
+      <c r="D7" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
     </row>
     <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="53">
@@ -3466,19 +3074,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="118" t="s">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="C8" s="122" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="161" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
+        <v>121</v>
+      </c>
+      <c r="D8" s="151" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
     </row>
     <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="53">
@@ -3486,19 +3094,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="118" t="s">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="C9" s="122" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
+        <v>76</v>
+      </c>
+      <c r="D9" s="151" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="53">
@@ -3506,19 +3114,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="118" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="C10" s="122" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="161" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
+        <v>76</v>
+      </c>
+      <c r="D10" s="151" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="53">
@@ -3526,19 +3134,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="C11" s="122" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="161" t="s">
-        <v>216</v>
-      </c>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
+        <v>123</v>
+      </c>
+      <c r="D11" s="151" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
     </row>
     <row r="12" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="53">
@@ -3546,19 +3154,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="119" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="C12" s="122" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" s="161" t="s">
-        <v>217</v>
-      </c>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
+        <v>123</v>
+      </c>
+      <c r="D12" s="151" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
     </row>
     <row r="13" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="53">
@@ -3566,19 +3174,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="118" t="s">
-        <v>207</v>
+        <v>116</v>
       </c>
       <c r="C13" s="122" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="161" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
+        <v>76</v>
+      </c>
+      <c r="D13" s="151" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
     </row>
     <row r="14" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="53">
@@ -3586,39 +3194,39 @@
         <v>13</v>
       </c>
       <c r="B14" s="118" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="173" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" s="161" t="s">
-        <v>219</v>
-      </c>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
+        <v>117</v>
+      </c>
+      <c r="C14" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
     </row>
     <row r="15" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="53">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="174" t="s">
-        <v>209</v>
+      <c r="B15" s="150" t="s">
+        <v>118</v>
       </c>
       <c r="C15" s="122" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="161" t="s">
-        <v>220</v>
-      </c>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
+        <v>76</v>
+      </c>
+      <c r="D15" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
     </row>
     <row r="16" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="53">
@@ -3626,19 +3234,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="123" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="C16" s="122" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="161" t="s">
-        <v>223</v>
-      </c>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
+        <v>76</v>
+      </c>
+      <c r="D16" s="151" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
     </row>
     <row r="17" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="53">
@@ -3646,19 +3254,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="173" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="162" t="s">
-        <v>216</v>
-      </c>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
+        <v>110</v>
+      </c>
+      <c r="C17" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="152" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="53">
@@ -3666,19 +3274,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="118" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="173" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="161" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
+        <v>120</v>
+      </c>
+      <c r="C18" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="151" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
     </row>
     <row r="19" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="53">
@@ -3688,11 +3296,6 @@
       <c r="B19" s="118"/>
       <c r="C19" s="122"/>
       <c r="D19" s="54"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
     </row>
     <row r="20" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="53">
@@ -3702,11 +3305,6 @@
       <c r="B20" s="118"/>
       <c r="C20" s="122"/>
       <c r="D20" s="54"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
     </row>
     <row r="21" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="53">
@@ -3716,11 +3314,6 @@
       <c r="B21" s="120"/>
       <c r="C21" s="122"/>
       <c r="D21" s="54"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
     </row>
     <row r="22" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="53">
@@ -3729,12 +3322,7 @@
       </c>
       <c r="B22" s="118"/>
       <c r="C22" s="122"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
+      <c r="D22" s="148"/>
     </row>
     <row r="23" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="53">
@@ -3743,12 +3331,7 @@
       </c>
       <c r="B23" s="118"/>
       <c r="C23" s="122"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
+      <c r="D23" s="143"/>
     </row>
     <row r="24" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="53">
@@ -3757,12 +3340,7 @@
       </c>
       <c r="B24" s="118"/>
       <c r="C24" s="122"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
+      <c r="D24" s="146"/>
     </row>
     <row r="25" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="53">
@@ -3771,12 +3349,7 @@
       </c>
       <c r="B25" s="118"/>
       <c r="C25" s="122"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
+      <c r="D25" s="146"/>
     </row>
     <row r="26" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="53">
@@ -3785,12 +3358,7 @@
       </c>
       <c r="B26" s="118"/>
       <c r="C26" s="122"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
+      <c r="D26" s="145"/>
     </row>
     <row r="27" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="53">
@@ -3799,12 +3367,7 @@
       </c>
       <c r="B27" s="118"/>
       <c r="C27" s="122"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
+      <c r="D27" s="145"/>
     </row>
     <row r="28" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="53">
@@ -3813,7 +3376,7 @@
       </c>
       <c r="B28" s="118"/>
       <c r="C28" s="122"/>
-      <c r="D28" s="171"/>
+      <c r="D28" s="147"/>
     </row>
     <row r="29" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="53">
@@ -3823,7 +3386,6 @@
       <c r="B29" s="118"/>
       <c r="C29" s="122"/>
       <c r="D29" s="54"/>
-      <c r="I29" s="160"/>
     </row>
     <row r="30" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="53">
@@ -3833,7 +3395,6 @@
       <c r="B30" s="118"/>
       <c r="C30" s="122"/>
       <c r="D30" s="122"/>
-      <c r="I30" s="160"/>
     </row>
     <row r="31" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="53">
@@ -3843,7 +3404,6 @@
       <c r="B31" s="118"/>
       <c r="C31" s="122"/>
       <c r="D31" s="54"/>
-      <c r="I31" s="160"/>
     </row>
     <row r="32" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="53">
@@ -3853,9 +3413,8 @@
       <c r="B32" s="118"/>
       <c r="C32" s="122"/>
       <c r="D32" s="122"/>
-      <c r="I32" s="160"/>
-    </row>
-    <row r="33" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="53">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3863,9 +3422,8 @@
       <c r="B33" s="118"/>
       <c r="C33" s="122"/>
       <c r="D33" s="54"/>
-      <c r="I33" s="160"/>
-    </row>
-    <row r="34" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="53">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3873,9 +3431,8 @@
       <c r="B34" s="118"/>
       <c r="C34" s="122"/>
       <c r="D34" s="54"/>
-      <c r="I34" s="160"/>
-    </row>
-    <row r="35" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="53">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3883,9 +3440,8 @@
       <c r="B35" s="118"/>
       <c r="C35" s="122"/>
       <c r="D35" s="54"/>
-      <c r="I35" s="160"/>
-    </row>
-    <row r="36" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="53">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3893,9 +3449,8 @@
       <c r="B36" s="118"/>
       <c r="C36" s="122"/>
       <c r="D36" s="54"/>
-      <c r="I36" s="160"/>
-    </row>
-    <row r="37" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="53">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3903,88 +3458,10 @@
       <c r="B37" s="118"/>
       <c r="C37" s="122"/>
       <c r="D37" s="54"/>
-      <c r="I37" s="160"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I38" s="160"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I39" s="160"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I40" s="160"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I41" s="160"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I42" s="160"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I43" s="160"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I44" s="160"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I45" s="160"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I46" s="160"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I47" s="160"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I48" s="160"/>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I49" s="160"/>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I50" s="160"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I51" s="160"/>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I52" s="160"/>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I53" s="160"/>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I54" s="160"/>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I55" s="160"/>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I56" s="160"/>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I57" s="160"/>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I58" s="160"/>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I59" s="160"/>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I60" s="160"/>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I61" s="160"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" deleteRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="D17:I17"/>
     <mergeCell ref="D18:I18"/>
@@ -3996,6 +3473,11 @@
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4009,10 +3491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DFA1AD-21E1-499A-A231-9C95A0A08AE8}">
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:BB73"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -4027,7 +3509,7 @@
     <col min="20" max="16384" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A1" s="19"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -4057,41 +3539,50 @@
       <c r="AA1" s="20"/>
       <c r="AB1" s="20"/>
       <c r="AC1" s="20"/>
-      <c r="AD1" s="58"/>
-    </row>
-    <row r="2" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="139" t="s">
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+    </row>
+    <row r="2" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
-      <c r="AD2" s="59"/>
-    </row>
-    <row r="3" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="160"/>
+      <c r="AI2" s="184"/>
+      <c r="AJ2" s="184"/>
+    </row>
+    <row r="3" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="60"/>
-      <c r="AD3" s="59"/>
-    </row>
-    <row r="4" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI3" s="184"/>
+      <c r="AJ3" s="184"/>
+    </row>
+    <row r="4" spans="1:36" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="49" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD4" s="37"/>
-    </row>
-    <row r="5" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>145</v>
+      </c>
+      <c r="AI4" s="185"/>
+      <c r="AJ4" s="185"/>
+    </row>
+    <row r="5" spans="1:36" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="49"/>
-      <c r="AD5" s="37"/>
-    </row>
-    <row r="6" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI5" s="185"/>
+      <c r="AJ5" s="185"/>
+    </row>
+    <row r="6" spans="1:36" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
+      <c r="B6" s="44" t="s">
+        <v>57</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4101,106 +3592,160 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="AD6" s="37"/>
-    </row>
-    <row r="7" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI6" s="185"/>
+      <c r="AJ6" s="185"/>
+    </row>
+    <row r="7" spans="1:36" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="49"/>
-      <c r="AD7" s="37"/>
-    </row>
-    <row r="8" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+    </row>
+    <row r="8" spans="1:36" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="49" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD8" s="37"/>
-    </row>
-    <row r="9" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+      <c r="AI8" s="185"/>
+      <c r="AJ8" s="185"/>
+    </row>
+    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="60"/>
-      <c r="AD9" s="59"/>
-    </row>
-    <row r="10" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD10" s="59"/>
-    </row>
-    <row r="11" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="60"/>
-      <c r="AD11" s="59"/>
-    </row>
-    <row r="12" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI9" s="184"/>
+      <c r="AJ9" s="184"/>
+    </row>
+    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="60"/>
+      <c r="AI10" s="184"/>
+      <c r="AJ10" s="184"/>
+    </row>
+    <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="158" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="161"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="162"/>
+      <c r="AI11" s="184"/>
+      <c r="AJ11" s="184"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A12" s="60"/>
-      <c r="AD12" s="59"/>
-    </row>
-    <row r="13" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="139" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="143"/>
-      <c r="AD13" s="59"/>
-    </row>
-    <row r="14" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="60"/>
-      <c r="AD14" s="59"/>
-    </row>
-    <row r="15" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD15" s="59"/>
-    </row>
-    <row r="16" spans="1:30" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="45" t="s">
+      <c r="AI12" s="184"/>
+      <c r="AJ12" s="184"/>
+    </row>
+    <row r="13" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="184"/>
+      <c r="AJ13" s="184"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A14" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="144" t="s">
+      <c r="B14" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="145"/>
-      <c r="N16" s="146"/>
-      <c r="O16" s="147" t="s">
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="138"/>
+      <c r="AI14" s="184"/>
+      <c r="AJ14" s="184"/>
+    </row>
+    <row r="15" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="9"/>
+      <c r="AI15" s="184"/>
+      <c r="AJ15" s="184"/>
+    </row>
+    <row r="16" spans="1:36" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AI16" s="186"/>
+      <c r="AJ16" s="186"/>
+    </row>
+    <row r="17" spans="1:36" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="P16" s="148"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="148"/>
-      <c r="Y16" s="148"/>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="148"/>
-      <c r="AB16" s="148"/>
-      <c r="AC16" s="148"/>
-      <c r="AD16" s="62"/>
-    </row>
-    <row r="17" spans="1:34" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>17</v>
+      <c r="B17" s="42" t="s">
+        <v>147</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
@@ -4214,33 +3759,32 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="O17" s="4"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="63"/>
-    </row>
-    <row r="18" spans="1:34" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U17" s="9"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AI17" s="187"/>
+      <c r="AJ17" s="187"/>
+    </row>
+    <row r="18" spans="1:36" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
-        <v>2</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="179"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -4252,34 +3796,32 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="O18" s="4"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="63"/>
-    </row>
-    <row r="19" spans="1:34" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U18" s="9"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AI18" s="187"/>
+    </row>
+    <row r="19" spans="1:36" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="124"/>
-      <c r="D19" s="65"/>
+        <v>103</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -4290,35 +3832,32 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="O19" s="4"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="63"/>
-      <c r="AH19" s="12"/>
-    </row>
-    <row r="20" spans="1:34" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U19" s="9"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AI19" s="187"/>
+    </row>
+    <row r="20" spans="1:36" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
-        <v>4</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="124"/>
-      <c r="D20" s="65"/>
+        <v>6</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -4329,34 +3868,33 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="O20" s="4"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="63"/>
-    </row>
-    <row r="21" spans="1:34" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U20" s="9"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="187"/>
+    </row>
+    <row r="21" spans="1:36" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
-        <v>5</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="65"/>
+        <v>7</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -4367,490 +3905,439 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="O21" s="4"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="63"/>
-    </row>
-    <row r="22" spans="1:34" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="49"/>
-      <c r="AD22" s="37"/>
-    </row>
-    <row r="23" spans="1:34" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="49"/>
-      <c r="AD23" s="37"/>
-    </row>
-    <row r="24" spans="1:34" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="49" t="s">
+      <c r="U21" s="9"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AI21" s="187"/>
+    </row>
+    <row r="22" spans="1:36" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>8</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AI22" s="187"/>
+    </row>
+    <row r="23" spans="1:36" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AI23" s="187"/>
+    </row>
+    <row r="24" spans="1:36" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="49"/>
+      <c r="AI24" s="185"/>
+    </row>
+    <row r="25" spans="1:36" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="49"/>
+      <c r="AI25" s="185"/>
+    </row>
+    <row r="26" spans="1:36" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD24" s="37"/>
-    </row>
-    <row r="25" spans="1:34" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="49"/>
-      <c r="AD25" s="37"/>
-    </row>
-    <row r="26" spans="1:34" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="49"/>
-      <c r="B26" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="134" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="136" t="s">
-        <v>54</v>
-      </c>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="137"/>
-      <c r="R26" s="137"/>
-      <c r="S26" s="137"/>
-      <c r="T26" s="137"/>
-      <c r="U26" s="138"/>
-      <c r="V26" s="136" t="s">
-        <v>60</v>
-      </c>
-      <c r="W26" s="137"/>
-      <c r="X26" s="137"/>
-      <c r="Y26" s="137"/>
-      <c r="Z26" s="137"/>
-      <c r="AA26" s="137"/>
-      <c r="AB26" s="137"/>
-      <c r="AC26" s="138"/>
-      <c r="AD26" s="37"/>
-    </row>
-    <row r="27" spans="1:34" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI26" s="185"/>
+    </row>
+    <row r="27" spans="1:36" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="49"/>
-      <c r="D27" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="37"/>
-    </row>
-    <row r="28" spans="1:34" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI27" s="185"/>
+    </row>
+    <row r="28" spans="1:36" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="49"/>
-      <c r="D28" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="37"/>
-    </row>
-    <row r="29" spans="1:34" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="49"/>
-      <c r="D29" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="36" t="s">
+      <c r="AI28" s="185"/>
+    </row>
+    <row r="29" spans="1:36" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI29" s="185"/>
+    </row>
+    <row r="30" spans="1:36" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="49"/>
+      <c r="B30" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI30" s="185"/>
+    </row>
+    <row r="31" spans="1:36" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="16"/>
+      <c r="AI31" s="185"/>
+    </row>
+    <row r="32" spans="1:36" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="S32" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="37"/>
-    </row>
-    <row r="30" spans="1:34" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="49"/>
-      <c r="AD30" s="37"/>
-    </row>
-    <row r="31" spans="1:34" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="49"/>
-      <c r="AD31" s="37"/>
-    </row>
-    <row r="32" spans="1:34" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD32" s="37"/>
-    </row>
-    <row r="33" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="49"/>
-      <c r="AD33" s="37"/>
-    </row>
-    <row r="34" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="49"/>
-      <c r="B34" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD34" s="37"/>
-    </row>
-    <row r="35" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="49"/>
-      <c r="AD35" s="37"/>
-    </row>
-    <row r="36" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="23"/>
+      <c r="AI32" s="185"/>
+    </row>
+    <row r="33" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="38"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="33"/>
+      <c r="S33" s="41"/>
+      <c r="AB33" s="37"/>
+      <c r="AI33" s="185"/>
+    </row>
+    <row r="34" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="23"/>
+      <c r="AI34" s="185"/>
+    </row>
+    <row r="35" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="32"/>
+      <c r="AI35" s="185"/>
+    </row>
+    <row r="36" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="49"/>
-      <c r="E36" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD36" s="37"/>
-    </row>
-    <row r="37" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI36" s="185"/>
+    </row>
+    <row r="37" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="49"/>
-      <c r="AD37" s="37"/>
-    </row>
-    <row r="38" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="49"/>
-      <c r="D38" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD38" s="37"/>
-    </row>
-    <row r="39" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI37" s="185"/>
+    </row>
+    <row r="38" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI38" s="185"/>
+    </row>
+    <row r="39" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="49"/>
-      <c r="AD39" s="37"/>
-    </row>
-    <row r="40" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="49"/>
-      <c r="AD40" s="37"/>
-    </row>
-    <row r="41" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="AD41" s="37"/>
-    </row>
-    <row r="42" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="49"/>
-      <c r="AD42" s="37"/>
-    </row>
-    <row r="43" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="49"/>
-      <c r="B43" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="134" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="135"/>
-      <c r="I43" s="135"/>
-      <c r="J43" s="135"/>
-      <c r="K43" s="136" t="s">
-        <v>54</v>
-      </c>
-      <c r="L43" s="137"/>
-      <c r="M43" s="137"/>
-      <c r="N43" s="137"/>
-      <c r="O43" s="137"/>
-      <c r="P43" s="137"/>
-      <c r="Q43" s="137"/>
-      <c r="R43" s="137"/>
-      <c r="S43" s="137"/>
-      <c r="T43" s="137"/>
-      <c r="U43" s="138"/>
-      <c r="V43" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="W43" s="137"/>
-      <c r="X43" s="137"/>
-      <c r="Y43" s="137"/>
-      <c r="Z43" s="137"/>
-      <c r="AA43" s="137"/>
-      <c r="AB43" s="137"/>
-      <c r="AC43" s="138"/>
-      <c r="AD43" s="37"/>
-    </row>
-    <row r="44" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="49"/>
-      <c r="D44" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="15"/>
-      <c r="AC44" s="16"/>
-      <c r="AD44" s="37"/>
-    </row>
-    <row r="45" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="49"/>
-      <c r="D45" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="16"/>
-      <c r="AD45" s="37"/>
-    </row>
-    <row r="46" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="49"/>
-      <c r="D46" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="16"/>
-      <c r="AD46" s="37"/>
-    </row>
-    <row r="47" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="49"/>
-      <c r="AD47" s="37"/>
-    </row>
-    <row r="48" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="49"/>
-      <c r="AD48" s="37"/>
-    </row>
-    <row r="49" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD49" s="59"/>
-    </row>
-    <row r="50" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI39" s="185"/>
+    </row>
+    <row r="40" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI40" s="185"/>
+    </row>
+    <row r="41" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI41" s="185"/>
+    </row>
+    <row r="42" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI42" s="185"/>
+    </row>
+    <row r="43" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI43" s="185"/>
+    </row>
+    <row r="44" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI44" s="185"/>
+    </row>
+    <row r="45" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI45" s="185"/>
+      <c r="AM45" s="180"/>
+      <c r="AN45" s="180"/>
+      <c r="AO45" s="180"/>
+      <c r="AP45" s="180"/>
+      <c r="AQ45" s="180"/>
+      <c r="AR45" s="180"/>
+      <c r="AS45" s="180"/>
+      <c r="AT45" s="180"/>
+      <c r="AU45" s="180"/>
+      <c r="AV45" s="180"/>
+      <c r="AW45" s="180"/>
+    </row>
+    <row r="46" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI46" s="185"/>
+    </row>
+    <row r="47" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI47" s="185"/>
+      <c r="AJ47" s="180"/>
+      <c r="AK47" s="180"/>
+      <c r="AL47" s="180"/>
+      <c r="AM47" s="180"/>
+      <c r="AN47" s="180"/>
+      <c r="AO47" s="180"/>
+      <c r="BB47" s="181"/>
+    </row>
+    <row r="48" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI48" s="185"/>
+    </row>
+    <row r="49" spans="1:46" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI49" s="185"/>
+      <c r="AM49" s="180"/>
+      <c r="AN49" s="180"/>
+      <c r="AO49" s="180"/>
+      <c r="AP49" s="180"/>
+      <c r="AQ49" s="180"/>
+      <c r="AR49" s="180"/>
+      <c r="AS49" s="180"/>
+      <c r="AT49" s="180"/>
+    </row>
+    <row r="50" spans="1:46" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="49"/>
-      <c r="AD50" s="37"/>
-    </row>
-    <row r="51" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="41"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="30"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="30"/>
-      <c r="Z51" s="30"/>
-      <c r="AA51" s="30"/>
-      <c r="AB51" s="30"/>
-      <c r="AC51" s="30"/>
-      <c r="AD51" s="32"/>
-    </row>
-    <row r="52" spans="1:30" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="183"/>
+      <c r="AI50" s="185"/>
+    </row>
+    <row r="51" spans="1:46" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="49"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="183"/>
+      <c r="AI51" s="185"/>
+    </row>
+    <row r="52" spans="1:46" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="49"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="183"/>
+      <c r="AI52" s="185"/>
+    </row>
+    <row r="53" spans="1:46" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="49"/>
+      <c r="AI53" s="185"/>
+    </row>
+    <row r="54" spans="1:46" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="49"/>
+      <c r="AI54" s="185"/>
+    </row>
+    <row r="55" spans="1:46" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI55" s="185"/>
+    </row>
+    <row r="56" spans="1:46" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI56" s="185"/>
+    </row>
+    <row r="57" spans="1:46" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:46" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="1:46" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="1:46" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:46" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="1:46" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="1:46" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="1:46" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="49"/>
+      <c r="AI66" s="37"/>
+    </row>
+    <row r="67" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="49"/>
+      <c r="AI67" s="37"/>
+    </row>
+    <row r="68" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="49"/>
+      <c r="AI68" s="37"/>
+    </row>
+    <row r="69" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="49"/>
+      <c r="AI69" s="37"/>
+    </row>
+    <row r="70" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="49"/>
+      <c r="AI70" s="37"/>
+    </row>
+    <row r="71" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI71" s="37"/>
+    </row>
+    <row r="72" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="49"/>
+      <c r="AI72" s="37"/>
+    </row>
+    <row r="73" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="41"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
+      <c r="P73" s="30"/>
+      <c r="Q73" s="30"/>
+      <c r="R73" s="30"/>
+      <c r="S73" s="30"/>
+      <c r="T73" s="30"/>
+      <c r="U73" s="30"/>
+      <c r="V73" s="30"/>
+      <c r="W73" s="30"/>
+      <c r="X73" s="30"/>
+      <c r="Y73" s="30"/>
+      <c r="Z73" s="30"/>
+      <c r="AA73" s="30"/>
+      <c r="AB73" s="30"/>
+      <c r="AC73" s="30"/>
+      <c r="AD73" s="30"/>
+      <c r="AE73" s="30"/>
+      <c r="AF73" s="30"/>
+      <c r="AG73" s="30"/>
+      <c r="AH73" s="30"/>
+      <c r="AI73" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="K43:U43"/>
-    <mergeCell ref="V43:AC43"/>
+  <mergeCells count="5">
+    <mergeCell ref="AM45:AW45"/>
+    <mergeCell ref="AJ47:AO47"/>
+    <mergeCell ref="AM49:AT49"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="O16:AC16"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="K26:U26"/>
-    <mergeCell ref="V26:AC26"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4862,8 +4349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6EEB5C-0662-4363-ADB8-BA72D75D5A00}">
   <dimension ref="A1:AM98"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA53" sqref="AA53"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -4916,13 +4403,13 @@
       <c r="AI1" s="58"/>
     </row>
     <row r="2" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="160"/>
       <c r="AI2" s="59"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -4934,7 +4421,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AI4" s="37"/>
     </row>
@@ -4947,7 +4434,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4968,7 +4455,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="AI8" s="37"/>
     </row>
@@ -4981,7 +4468,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="AI10" s="59"/>
     </row>
@@ -4991,10 +4478,10 @@
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="60" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AI12" s="59"/>
     </row>
@@ -5004,10 +4491,10 @@
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="60" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="AI14" s="59"/>
     </row>
@@ -5020,13 +4507,13 @@
       <c r="AI16" s="59"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="139" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
+      <c r="A17" s="158" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="162"/>
       <c r="AI17" s="59"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.4">
@@ -5035,7 +4522,7 @@
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="61" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="AI19" s="59"/>
     </row>
@@ -5043,38 +4530,38 @@
       <c r="A20" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="144" t="s">
+      <c r="B20" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="145"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="147" t="s">
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="148"/>
-      <c r="Q20" s="148"/>
-      <c r="R20" s="148"/>
-      <c r="S20" s="148"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="148"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="148"/>
-      <c r="Y20" s="148"/>
-      <c r="Z20" s="148"/>
-      <c r="AA20" s="148"/>
-      <c r="AB20" s="148"/>
-      <c r="AC20" s="148"/>
+      <c r="P20" s="167"/>
+      <c r="Q20" s="167"/>
+      <c r="R20" s="167"/>
+      <c r="S20" s="167"/>
+      <c r="T20" s="167"/>
+      <c r="U20" s="167"/>
+      <c r="V20" s="167"/>
+      <c r="W20" s="167"/>
+      <c r="X20" s="167"/>
+      <c r="Y20" s="167"/>
+      <c r="Z20" s="167"/>
+      <c r="AA20" s="167"/>
+      <c r="AB20" s="167"/>
+      <c r="AC20" s="167"/>
       <c r="AI20" s="62"/>
     </row>
     <row r="21" spans="1:35" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -5082,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
@@ -5097,7 +4584,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="7"/>
       <c r="O21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
@@ -5120,7 +4607,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
@@ -5135,7 +4622,7 @@
       <c r="M22" s="5"/>
       <c r="N22" s="7"/>
       <c r="O22" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
@@ -5157,10 +4644,10 @@
       <c r="A23" s="3">
         <v>3</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B23" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="42"/>
       <c r="D23" s="6"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -5172,8 +4659,8 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="4" t="s">
-        <v>24</v>
+      <c r="O23" s="36" t="s">
+        <v>153</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
@@ -5195,10 +4682,10 @@
       <c r="A24" s="3">
         <v>4</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B24" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="42"/>
       <c r="D24" s="6"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -5210,8 +4697,8 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="4" t="s">
-        <v>25</v>
+      <c r="O24" s="36" t="s">
+        <v>154</v>
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
@@ -5234,10 +4721,10 @@
       <c r="A25" s="3">
         <v>5</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B25" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="42"/>
       <c r="D25" s="6"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -5249,8 +4736,8 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="4" t="s">
-        <v>26</v>
+      <c r="O25" s="36" t="s">
+        <v>155</v>
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
@@ -5272,10 +4759,10 @@
       <c r="A26" s="3">
         <v>6</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B26" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="50"/>
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -5287,8 +4774,8 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="4" t="s">
-        <v>27</v>
+      <c r="O26" s="36" t="s">
+        <v>156</v>
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
@@ -5310,10 +4797,10 @@
       <c r="A27" s="3">
         <v>7</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="B27" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="11"/>
       <c r="D27" s="6"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -5325,8 +4812,8 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="4" t="s">
-        <v>35</v>
+      <c r="O27" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
@@ -5348,10 +4835,10 @@
       <c r="A28" s="3">
         <v>8</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="B28" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="42"/>
       <c r="D28" s="6"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -5363,8 +4850,8 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="4" t="s">
-        <v>34</v>
+      <c r="O28" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
@@ -5387,10 +4874,10 @@
       <c r="A29" s="3">
         <v>9</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B29" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="42"/>
       <c r="D29" s="6"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -5402,8 +4889,8 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="4" t="s">
-        <v>36</v>
+      <c r="O29" s="36" t="s">
+        <v>159</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
@@ -5425,10 +4912,10 @@
       <c r="A30" s="3">
         <v>10</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="B30" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="42"/>
       <c r="D30" s="6"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -5440,8 +4927,8 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="4" t="s">
-        <v>37</v>
+      <c r="O30" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
@@ -5464,9 +4951,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="11"/>
-      <c r="C31" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -5478,9 +4963,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="O31" s="4"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
@@ -5502,9 +4985,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="11"/>
-      <c r="C32" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -5516,9 +4997,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="O32" s="4"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
@@ -5549,7 +5028,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AI35" s="37"/>
     </row>
@@ -5563,48 +5042,48 @@
         <v>9</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="134" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="135"/>
-      <c r="J37" s="135"/>
-      <c r="K37" s="136" t="s">
-        <v>54</v>
-      </c>
-      <c r="L37" s="137"/>
-      <c r="M37" s="137"/>
-      <c r="N37" s="137"/>
-      <c r="O37" s="137"/>
-      <c r="P37" s="137"/>
-      <c r="Q37" s="137"/>
-      <c r="R37" s="137"/>
-      <c r="S37" s="137"/>
-      <c r="T37" s="137"/>
-      <c r="U37" s="138"/>
-      <c r="V37" s="136" t="s">
-        <v>60</v>
-      </c>
-      <c r="W37" s="137"/>
-      <c r="X37" s="137"/>
-      <c r="Y37" s="137"/>
-      <c r="Z37" s="137"/>
-      <c r="AA37" s="137"/>
-      <c r="AB37" s="137"/>
-      <c r="AC37" s="138"/>
+        <v>33</v>
+      </c>
+      <c r="E37" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="155" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" s="156"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="156"/>
+      <c r="P37" s="156"/>
+      <c r="Q37" s="156"/>
+      <c r="R37" s="156"/>
+      <c r="S37" s="156"/>
+      <c r="T37" s="156"/>
+      <c r="U37" s="157"/>
+      <c r="V37" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="W37" s="156"/>
+      <c r="X37" s="156"/>
+      <c r="Y37" s="156"/>
+      <c r="Z37" s="156"/>
+      <c r="AA37" s="156"/>
+      <c r="AB37" s="156"/>
+      <c r="AC37" s="157"/>
       <c r="AI37" s="37"/>
     </row>
     <row r="38" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="49"/>
       <c r="D38" s="47" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -5612,7 +5091,7 @@
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="36" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
@@ -5637,19 +5116,15 @@
     <row r="39" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="49"/>
       <c r="D39" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>21</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E39" s="11"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
-      <c r="K39" s="36" t="s">
-        <v>56</v>
-      </c>
+      <c r="K39" s="36"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
@@ -5673,19 +5148,15 @@
     <row r="40" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="49"/>
       <c r="D40" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="36" t="s">
-        <v>57</v>
-      </c>
+      <c r="K40" s="36"/>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40" s="15"/>
@@ -5709,19 +5180,15 @@
     <row r="41" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="49"/>
       <c r="D41" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>23</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E41" s="11"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
-      <c r="K41" s="36" t="s">
-        <v>58</v>
-      </c>
+      <c r="K41" s="36"/>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
@@ -5752,10 +5219,10 @@
     </row>
     <row r="44" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="49" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="AI44" s="37"/>
     </row>
@@ -5766,10 +5233,10 @@
     <row r="46" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="49"/>
       <c r="B46" s="44" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="AI46" s="37"/>
     </row>
@@ -5780,7 +5247,7 @@
     <row r="48" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="49"/>
       <c r="E48" s="44" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="AI48" s="37"/>
     </row>
@@ -5791,7 +5258,7 @@
     <row r="50" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="49"/>
       <c r="D50" s="44" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="AI50" s="37"/>
     </row>
@@ -5808,7 +5275,7 @@
         <v>7</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="AI53" s="37"/>
     </row>
@@ -5823,51 +5290,51 @@
     <row r="56" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="49"/>
       <c r="B56" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="134" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56" s="135"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
-      <c r="J56" s="135"/>
-      <c r="K56" s="136" t="s">
-        <v>54</v>
-      </c>
-      <c r="L56" s="137"/>
-      <c r="M56" s="137"/>
-      <c r="N56" s="137"/>
-      <c r="O56" s="137"/>
-      <c r="P56" s="137"/>
-      <c r="Q56" s="137"/>
-      <c r="R56" s="137"/>
-      <c r="S56" s="137"/>
-      <c r="T56" s="137"/>
-      <c r="U56" s="138"/>
-      <c r="V56" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="W56" s="137"/>
-      <c r="X56" s="137"/>
-      <c r="Y56" s="137"/>
-      <c r="Z56" s="137"/>
-      <c r="AA56" s="137"/>
-      <c r="AB56" s="137"/>
-      <c r="AC56" s="138"/>
+        <v>33</v>
+      </c>
+      <c r="E56" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="154"/>
+      <c r="G56" s="154"/>
+      <c r="H56" s="154"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="154"/>
+      <c r="K56" s="155" t="s">
+        <v>35</v>
+      </c>
+      <c r="L56" s="156"/>
+      <c r="M56" s="156"/>
+      <c r="N56" s="156"/>
+      <c r="O56" s="156"/>
+      <c r="P56" s="156"/>
+      <c r="Q56" s="156"/>
+      <c r="R56" s="156"/>
+      <c r="S56" s="156"/>
+      <c r="T56" s="156"/>
+      <c r="U56" s="157"/>
+      <c r="V56" s="156" t="s">
+        <v>37</v>
+      </c>
+      <c r="W56" s="156"/>
+      <c r="X56" s="156"/>
+      <c r="Y56" s="156"/>
+      <c r="Z56" s="156"/>
+      <c r="AA56" s="156"/>
+      <c r="AB56" s="156"/>
+      <c r="AC56" s="157"/>
       <c r="AI56" s="37"/>
     </row>
     <row r="57" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="49"/>
       <c r="D57" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>99</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -5875,7 +5342,7 @@
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
       <c r="K57" s="36" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
@@ -5900,10 +5367,10 @@
     <row r="58" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="49"/>
       <c r="D58" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>100</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -5911,7 +5378,7 @@
       <c r="I58" s="15"/>
       <c r="J58" s="15"/>
       <c r="K58" s="36" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
@@ -5936,10 +5403,10 @@
     <row r="59" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="49"/>
       <c r="D59" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>147</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -5947,7 +5414,7 @@
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
       <c r="K59" s="36" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
@@ -5972,10 +5439,10 @@
     <row r="60" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="49"/>
       <c r="D60" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="E60" s="50" t="s">
+        <v>102</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -5983,7 +5450,7 @@
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
       <c r="K60" s="36" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
@@ -6008,10 +5475,10 @@
     <row r="61" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="49"/>
       <c r="D61" s="48" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -6019,7 +5486,7 @@
       <c r="I61" s="15"/>
       <c r="J61" s="15"/>
       <c r="K61" s="36" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
@@ -6044,10 +5511,10 @@
     <row r="62" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="49"/>
       <c r="D62" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>103</v>
+        <v>41</v>
+      </c>
+      <c r="E62" s="42" t="s">
+        <v>104</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -6055,7 +5522,7 @@
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
       <c r="K62" s="36" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
@@ -6080,10 +5547,10 @@
     <row r="63" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="49"/>
       <c r="D63" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>105</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -6091,7 +5558,7 @@
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
       <c r="K63" s="36" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
@@ -6115,6 +5582,38 @@
     </row>
     <row r="64" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="49"/>
+      <c r="D64" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="15"/>
+      <c r="AC64" s="16"/>
       <c r="AI64" s="37"/>
     </row>
     <row r="65" spans="1:39" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -6126,7 +5625,7 @@
         <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="AI66" s="59"/>
     </row>
@@ -6137,17 +5636,17 @@
     <row r="68" spans="1:39" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="49"/>
       <c r="B68" s="44" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="H68" s="34"/>
       <c r="I68" s="36" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
@@ -6162,7 +5661,7 @@
       <c r="T68" s="15"/>
       <c r="U68" s="15"/>
       <c r="V68" s="15" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="W68" s="15"/>
       <c r="X68" s="15"/>
@@ -6187,11 +5686,11 @@
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="24"/>
-      <c r="I69" s="33" t="s">
-        <v>13</v>
+      <c r="I69" s="42" t="s">
+        <v>99</v>
       </c>
       <c r="V69" s="40" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="AE69" s="22"/>
       <c r="AF69" s="22"/>
@@ -6206,11 +5705,11 @@
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="39"/>
-      <c r="I70" s="33" t="s">
-        <v>22</v>
+      <c r="I70" s="42" t="s">
+        <v>100</v>
       </c>
       <c r="V70" s="49" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="AF70" s="51"/>
       <c r="AG70" s="51"/>
@@ -6228,11 +5727,11 @@
       <c r="F71" s="57"/>
       <c r="G71" s="57"/>
       <c r="H71" s="39"/>
-      <c r="I71" s="33" t="s">
-        <v>23</v>
+      <c r="I71" s="42" t="s">
+        <v>147</v>
       </c>
       <c r="V71" s="49" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="AF71" s="51"/>
       <c r="AG71" s="51"/>
@@ -6251,10 +5750,10 @@
       <c r="G72" s="57"/>
       <c r="H72" s="39"/>
       <c r="I72" s="50" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="V72" s="49" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AF72" s="51"/>
       <c r="AG72" s="51"/>
@@ -6272,11 +5771,11 @@
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
       <c r="H73" s="39"/>
-      <c r="I73" s="50" t="s">
-        <v>31</v>
+      <c r="I73" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="V73" s="49" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="AF73" s="51"/>
       <c r="AG73" s="51"/>
@@ -6294,11 +5793,11 @@
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
       <c r="H74" s="39"/>
-      <c r="I74" s="33" t="s">
-        <v>32</v>
+      <c r="I74" s="42" t="s">
+        <v>104</v>
       </c>
       <c r="V74" s="49" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AF74" s="51"/>
       <c r="AG74" s="51"/>
@@ -6316,11 +5815,12 @@
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
       <c r="H75" s="39"/>
-      <c r="I75" s="33" t="s">
-        <v>33</v>
-      </c>
+      <c r="I75" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="U75" s="37"/>
       <c r="V75" s="49" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AF75" s="51"/>
       <c r="AG75" s="51"/>
@@ -6333,80 +5833,92 @@
     </row>
     <row r="76" spans="1:39" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="49"/>
-      <c r="D76" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="22"/>
-      <c r="O76" s="22"/>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="22"/>
-      <c r="S76" s="22"/>
-      <c r="T76" s="22"/>
-      <c r="U76" s="22"/>
-      <c r="V76" s="22"/>
-      <c r="W76" s="22"/>
-      <c r="X76" s="22"/>
-      <c r="Y76" s="22"/>
-      <c r="Z76" s="22"/>
-      <c r="AA76" s="22"/>
-      <c r="AB76" s="22"/>
-      <c r="AC76" s="22"/>
-      <c r="AD76" s="22"/>
-      <c r="AE76" s="22"/>
-      <c r="AF76" s="22"/>
-      <c r="AG76" s="22"/>
-      <c r="AH76" s="23"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="U76" s="37"/>
+      <c r="V76" s="49" t="s">
+        <v>144</v>
+      </c>
       <c r="AI76" s="37"/>
     </row>
     <row r="77" spans="1:39" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="49"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="30"/>
-      <c r="N77" s="30"/>
-      <c r="O77" s="30"/>
-      <c r="P77" s="30"/>
-      <c r="Q77" s="30"/>
-      <c r="R77" s="30"/>
-      <c r="S77" s="30"/>
-      <c r="T77" s="30"/>
-      <c r="U77" s="30"/>
-      <c r="V77" s="30"/>
-      <c r="W77" s="30"/>
-      <c r="X77" s="30"/>
-      <c r="Y77" s="30"/>
-      <c r="Z77" s="30"/>
-      <c r="AA77" s="30"/>
-      <c r="AB77" s="30"/>
-      <c r="AC77" s="30"/>
-      <c r="AD77" s="30"/>
-      <c r="AE77" s="30"/>
-      <c r="AF77" s="30"/>
-      <c r="AG77" s="30"/>
-      <c r="AH77" s="32"/>
+      <c r="D77" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="22"/>
+      <c r="T77" s="22"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="22"/>
+      <c r="W77" s="22"/>
+      <c r="X77" s="22"/>
+      <c r="Y77" s="22"/>
+      <c r="Z77" s="22"/>
+      <c r="AA77" s="22"/>
+      <c r="AB77" s="22"/>
+      <c r="AC77" s="22"/>
+      <c r="AD77" s="22"/>
+      <c r="AE77" s="22"/>
+      <c r="AF77" s="22"/>
+      <c r="AG77" s="22"/>
+      <c r="AH77" s="23"/>
       <c r="AI77" s="37"/>
     </row>
     <row r="78" spans="1:39" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="49"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="30"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="30"/>
+      <c r="U78" s="32"/>
+      <c r="V78" s="30"/>
+      <c r="W78" s="30"/>
+      <c r="X78" s="30"/>
+      <c r="Y78" s="30"/>
+      <c r="Z78" s="30"/>
+      <c r="AA78" s="30"/>
+      <c r="AB78" s="30"/>
+      <c r="AC78" s="30"/>
+      <c r="AD78" s="30"/>
+      <c r="AE78" s="30"/>
+      <c r="AF78" s="30"/>
+      <c r="AG78" s="30"/>
+      <c r="AH78" s="32"/>
       <c r="AI78" s="37"/>
     </row>
     <row r="79" spans="1:39" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -6415,10 +5927,10 @@
     </row>
     <row r="80" spans="1:39" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="60" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -6435,61 +5947,60 @@
     <row r="82" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="49"/>
       <c r="B82" s="44" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="D82" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E82" s="134" t="s">
-        <v>53</v>
-      </c>
-      <c r="F82" s="135"/>
-      <c r="G82" s="135"/>
-      <c r="H82" s="135"/>
-      <c r="I82" s="135"/>
-      <c r="J82" s="135"/>
-      <c r="K82" s="136" t="s">
-        <v>54</v>
-      </c>
-      <c r="L82" s="137"/>
-      <c r="M82" s="137"/>
-      <c r="N82" s="137"/>
-      <c r="O82" s="137"/>
-      <c r="P82" s="137"/>
-      <c r="Q82" s="137"/>
-      <c r="R82" s="137"/>
-      <c r="S82" s="137"/>
-      <c r="T82" s="137"/>
-      <c r="U82" s="138"/>
-      <c r="V82" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="W82" s="137"/>
-      <c r="X82" s="137"/>
-      <c r="Y82" s="137"/>
-      <c r="Z82" s="137"/>
-      <c r="AA82" s="137"/>
-      <c r="AB82" s="137"/>
-      <c r="AC82" s="138"/>
+        <v>33</v>
+      </c>
+      <c r="E82" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="154"/>
+      <c r="G82" s="154"/>
+      <c r="H82" s="154"/>
+      <c r="I82" s="154"/>
+      <c r="J82" s="154"/>
+      <c r="K82" s="155" t="s">
+        <v>35</v>
+      </c>
+      <c r="L82" s="156"/>
+      <c r="M82" s="156"/>
+      <c r="N82" s="156"/>
+      <c r="O82" s="156"/>
+      <c r="P82" s="156"/>
+      <c r="Q82" s="156"/>
+      <c r="R82" s="156"/>
+      <c r="S82" s="156"/>
+      <c r="T82" s="156"/>
+      <c r="U82" s="157"/>
+      <c r="V82" s="156" t="s">
+        <v>37</v>
+      </c>
+      <c r="W82" s="156"/>
+      <c r="X82" s="156"/>
+      <c r="Y82" s="156"/>
+      <c r="Z82" s="156"/>
+      <c r="AA82" s="156"/>
+      <c r="AB82" s="156"/>
+      <c r="AC82" s="157"/>
       <c r="AI82" s="37"/>
     </row>
     <row r="83" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="49"/>
       <c r="D83" s="48" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
       <c r="J83" s="15"/>
-      <c r="K83" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="L83" s="15"/>
+      <c r="L83" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="M83" s="15"/>
       <c r="N83" s="15"/>
       <c r="O83" s="15"/>
@@ -6512,19 +6023,15 @@
     <row r="84" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="49"/>
       <c r="D84" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E84" s="11"/>
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
-      <c r="K84" s="36" t="s">
-        <v>94</v>
-      </c>
+      <c r="K84" s="36"/>
       <c r="L84" s="15"/>
       <c r="M84" s="15"/>
       <c r="N84" s="15"/>
@@ -6548,19 +6055,15 @@
     <row r="85" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="49"/>
       <c r="D85" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E85" s="11"/>
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
       <c r="J85" s="15"/>
-      <c r="K85" s="36" t="s">
-        <v>95</v>
-      </c>
+      <c r="K85" s="36"/>
       <c r="L85" s="15"/>
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
@@ -6584,19 +6087,15 @@
     <row r="86" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="49"/>
       <c r="D86" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>89</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E86" s="11"/>
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
       <c r="J86" s="15"/>
-      <c r="K86" s="36" t="s">
-        <v>106</v>
-      </c>
+      <c r="K86" s="36"/>
       <c r="L86" s="15"/>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
@@ -6620,19 +6119,15 @@
     <row r="87" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="49"/>
       <c r="D87" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>30</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E87" s="11"/>
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
       <c r="J87" s="15"/>
-      <c r="K87" s="36" t="s">
-        <v>96</v>
-      </c>
+      <c r="K87" s="36"/>
       <c r="L87" s="15"/>
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
@@ -6656,19 +6151,15 @@
     <row r="88" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="49"/>
       <c r="D88" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>31</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E88" s="11"/>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="J88" s="15"/>
-      <c r="K88" s="36" t="s">
-        <v>97</v>
-      </c>
+      <c r="K88" s="36"/>
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
@@ -6692,19 +6183,15 @@
     <row r="89" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="49"/>
       <c r="D89" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>99</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E89" s="11"/>
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
       <c r="J89" s="15"/>
-      <c r="K89" s="36" t="s">
-        <v>100</v>
-      </c>
+      <c r="K89" s="36"/>
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
@@ -6728,19 +6215,15 @@
     <row r="90" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="49"/>
       <c r="D90" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>21</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E90" s="11"/>
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
       <c r="J90" s="15"/>
-      <c r="K90" s="36" t="s">
-        <v>98</v>
-      </c>
+      <c r="K90" s="36"/>
       <c r="L90" s="15"/>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
@@ -6764,19 +6247,15 @@
     <row r="91" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="49"/>
       <c r="D91" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>91</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E91" s="11"/>
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
       <c r="J91" s="15"/>
-      <c r="K91" s="36" t="s">
-        <v>107</v>
-      </c>
+      <c r="K91" s="36"/>
       <c r="L91" s="15"/>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
@@ -6800,19 +6279,15 @@
     <row r="92" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="49"/>
       <c r="D92" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>90</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E92" s="11"/>
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
-      <c r="K92" s="36" t="s">
-        <v>105</v>
-      </c>
+      <c r="K92" s="36"/>
       <c r="L92" s="15"/>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
@@ -6847,10 +6322,10 @@
     </row>
     <row r="96" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="60" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="AI96" s="59"/>
     </row>
@@ -6897,12 +6372,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="K56:U56"/>
-    <mergeCell ref="V56:AC56"/>
-    <mergeCell ref="E82:J82"/>
-    <mergeCell ref="K82:U82"/>
-    <mergeCell ref="V82:AC82"/>
     <mergeCell ref="B20:N20"/>
     <mergeCell ref="O20:AC20"/>
     <mergeCell ref="A2:E2"/>
@@ -6910,6 +6379,12 @@
     <mergeCell ref="V37:AC37"/>
     <mergeCell ref="E37:J37"/>
     <mergeCell ref="K37:U37"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="K56:U56"/>
+    <mergeCell ref="V56:AC56"/>
+    <mergeCell ref="E82:J82"/>
+    <mergeCell ref="K82:U82"/>
+    <mergeCell ref="V82:AC82"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6919,10 +6394,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01509A5-5672-49CE-8789-114353BD8C17}">
-  <dimension ref="A1:AI73"/>
+  <dimension ref="A1:BB73"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM59" sqref="AM59"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -6975,13 +6450,13 @@
       <c r="AI1" s="58"/>
     </row>
     <row r="2" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="160"/>
       <c r="AI2" s="59"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -6993,7 +6468,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AI4" s="37"/>
     </row>
@@ -7005,8 +6480,8 @@
       <c r="A6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>126</v>
+      <c r="B6" s="44" t="s">
+        <v>57</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -7026,8 +6501,8 @@
       <c r="A8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>138</v>
+      <c r="B8" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="AI8" s="37"/>
     </row>
@@ -7036,12 +6511,7 @@
       <c r="AI9" s="59"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="A10" s="60"/>
       <c r="AI10" s="59"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -7053,13 +6523,13 @@
       <c r="AI12" s="59"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="139" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="143"/>
+      <c r="A13" s="158" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="161"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="162"/>
       <c r="AI13" s="59"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.4">
@@ -7076,30 +6546,30 @@
       <c r="A16" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="145"/>
-      <c r="N16" s="146"/>
-      <c r="O16" s="147" t="s">
-        <v>92</v>
-      </c>
-      <c r="P16" s="148"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="149"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="166" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="167"/>
+      <c r="Q16" s="167"/>
+      <c r="R16" s="167"/>
+      <c r="S16" s="167"/>
+      <c r="T16" s="167"/>
+      <c r="U16" s="168"/>
       <c r="V16" s="55"/>
       <c r="W16" s="55"/>
       <c r="X16" s="55"/>
@@ -7115,7 +6585,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
@@ -7151,7 +6621,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
@@ -7187,7 +6657,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
@@ -7222,8 +6692,8 @@
       <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>30</v>
+      <c r="B20" s="50" t="s">
+        <v>102</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
@@ -7260,7 +6730,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
@@ -7296,7 +6766,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
@@ -7332,7 +6802,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
@@ -7364,7 +6834,31 @@
       <c r="AI23" s="63"/>
     </row>
     <row r="24" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="49"/>
+      <c r="A24" s="3">
+        <v>8</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="9"/>
       <c r="AI24" s="37"/>
     </row>
     <row r="25" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -7376,7 +6870,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="AI26" s="37"/>
     </row>
@@ -7389,26 +6883,44 @@
       <c r="B28" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="44" t="s">
-        <v>122</v>
-      </c>
       <c r="AI28" s="37"/>
     </row>
     <row r="29" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="49"/>
-      <c r="D29" s="44" t="s">
-        <v>123</v>
+      <c r="C29" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="J29" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="P29" s="44" t="s">
+        <v>173</v>
       </c>
       <c r="AI29" s="37"/>
     </row>
     <row r="30" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="49"/>
+      <c r="C30" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="J30" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="P30" s="44" t="s">
+        <v>174</v>
+      </c>
       <c r="AI30" s="37"/>
     </row>
     <row r="31" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="49"/>
-      <c r="D31" s="44" t="s">
-        <v>120</v>
+      <c r="C31" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="J31" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="P31" s="44" t="s">
+        <v>175</v>
       </c>
       <c r="AI31" s="37"/>
     </row>
@@ -7416,531 +6928,324 @@
       <c r="A32" s="49"/>
       <c r="AI32" s="37"/>
     </row>
-    <row r="33" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="49"/>
-      <c r="E33" s="44" t="s">
-        <v>124</v>
-      </c>
       <c r="AI33" s="37"/>
     </row>
-    <row r="34" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="49"/>
       <c r="AI34" s="37"/>
     </row>
-    <row r="35" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="49"/>
-      <c r="E35" s="44" t="s">
-        <v>121</v>
-      </c>
       <c r="AI35" s="37"/>
     </row>
-    <row r="36" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="49"/>
       <c r="AI36" s="37"/>
     </row>
-    <row r="37" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="49"/>
-      <c r="D37" s="44" t="s">
-        <v>128</v>
-      </c>
       <c r="AI37" s="37"/>
     </row>
-    <row r="38" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="49"/>
       <c r="AI38" s="37"/>
-    </row>
-    <row r="39" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="49"/>
-      <c r="E39" s="44" t="s">
-        <v>129</v>
+      <c r="AT38" s="57"/>
+      <c r="AU38" s="57"/>
+    </row>
+    <row r="39" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="AI39" s="37"/>
-    </row>
-    <row r="40" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AT39" s="57"/>
+    </row>
+    <row r="40" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="49"/>
       <c r="AI40" s="37"/>
-    </row>
-    <row r="41" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AT40" s="57"/>
+    </row>
+    <row r="41" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="49"/>
+      <c r="B41" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="15"/>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="15"/>
+      <c r="AH41" s="16"/>
       <c r="AI41" s="37"/>
-    </row>
-    <row r="42" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="49" t="s">
+      <c r="AT41" s="57"/>
+      <c r="AU41" s="57"/>
+    </row>
+    <row r="42" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="49"/>
+      <c r="D42" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="44" t="s">
-        <v>125</v>
-      </c>
+      <c r="V42" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="23"/>
       <c r="AI42" s="37"/>
-    </row>
-    <row r="43" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AT42" s="57"/>
+      <c r="AU42" s="57"/>
+    </row>
+    <row r="43" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="49"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="33"/>
+      <c r="V43" s="41"/>
+      <c r="AH43" s="37"/>
       <c r="AI43" s="37"/>
     </row>
-    <row r="44" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="49"/>
-      <c r="B44" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>140</v>
-      </c>
+      <c r="D44" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="22"/>
+      <c r="AF44" s="22"/>
+      <c r="AG44" s="22"/>
+      <c r="AH44" s="23"/>
       <c r="AI44" s="37"/>
     </row>
-    <row r="45" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="49"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="30"/>
+      <c r="AG45" s="30"/>
+      <c r="AH45" s="32"/>
       <c r="AI45" s="37"/>
     </row>
-    <row r="46" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="49"/>
-      <c r="C46" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="134" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="135"/>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="135"/>
-      <c r="J46" s="136" t="s">
-        <v>54</v>
-      </c>
-      <c r="K46" s="137"/>
-      <c r="L46" s="137"/>
-      <c r="M46" s="137"/>
-      <c r="N46" s="137"/>
-      <c r="O46" s="137"/>
-      <c r="P46" s="137"/>
-      <c r="Q46" s="137"/>
-      <c r="R46" s="137"/>
-      <c r="S46" s="137"/>
-      <c r="T46" s="138"/>
-      <c r="U46" s="136" t="s">
-        <v>60</v>
-      </c>
-      <c r="V46" s="137"/>
-      <c r="W46" s="137"/>
-      <c r="X46" s="137"/>
-      <c r="Y46" s="137"/>
-      <c r="Z46" s="137"/>
-      <c r="AA46" s="137"/>
-      <c r="AB46" s="138"/>
       <c r="AI46" s="37"/>
     </row>
-    <row r="47" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="49"/>
-      <c r="C47" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="15"/>
-      <c r="AA47" s="15"/>
-      <c r="AB47" s="16"/>
       <c r="AI47" s="37"/>
     </row>
-    <row r="48" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="49"/>
-      <c r="C48" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="15"/>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="16"/>
+    <row r="48" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>151</v>
+      </c>
       <c r="AI48" s="37"/>
-    </row>
-    <row r="49" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AP48" s="57"/>
+      <c r="BA48" s="57"/>
+      <c r="BB48" s="57"/>
+    </row>
+    <row r="49" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="49"/>
-      <c r="C49" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="15"/>
-      <c r="AA49" s="15"/>
-      <c r="AB49" s="16"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="183"/>
       <c r="AI49" s="37"/>
-    </row>
-    <row r="50" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BA49" s="57"/>
+      <c r="BB49" s="57"/>
+    </row>
+    <row r="50" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="49"/>
-      <c r="C50" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="15"/>
-      <c r="Y50" s="15"/>
-      <c r="Z50" s="15"/>
-      <c r="AA50" s="15"/>
-      <c r="AB50" s="16"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="183"/>
       <c r="AI50" s="37"/>
-    </row>
-    <row r="51" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BA50" s="57"/>
+      <c r="BB50" s="57"/>
+    </row>
+    <row r="51" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="49"/>
-      <c r="C51" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="36"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="15"/>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="16"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="183"/>
       <c r="AI51" s="37"/>
-    </row>
-    <row r="52" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BA51" s="57"/>
+      <c r="BB51" s="57"/>
+    </row>
+    <row r="52" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="49"/>
-      <c r="C52" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="15"/>
-      <c r="AA52" s="15"/>
-      <c r="AB52" s="16"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="183"/>
       <c r="AI52" s="37"/>
-    </row>
-    <row r="53" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM52" s="57"/>
+      <c r="BA52" s="57"/>
+      <c r="BB52" s="57"/>
+    </row>
+    <row r="53" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="49"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="183"/>
       <c r="AI53" s="37"/>
-    </row>
-    <row r="54" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AT53" s="57"/>
+    </row>
+    <row r="54" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="49"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="33"/>
       <c r="AI54" s="37"/>
     </row>
-    <row r="55" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="44" t="s">
-        <v>72</v>
-      </c>
+    <row r="55" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="49"/>
+      <c r="C55" s="182"/>
+      <c r="D55" s="33"/>
       <c r="AI55" s="37"/>
     </row>
-    <row r="56" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="49"/>
+      <c r="C56" s="182"/>
+      <c r="D56" s="33"/>
       <c r="AI56" s="37"/>
-    </row>
-    <row r="57" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AS56" s="57"/>
+    </row>
+    <row r="57" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="49"/>
-      <c r="B57" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="W57" s="15"/>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="15"/>
-      <c r="Z57" s="15"/>
-      <c r="AA57" s="15"/>
-      <c r="AB57" s="15"/>
-      <c r="AC57" s="15"/>
-      <c r="AD57" s="15"/>
-      <c r="AE57" s="15"/>
-      <c r="AF57" s="15"/>
-      <c r="AG57" s="15"/>
-      <c r="AH57" s="16"/>
       <c r="AI57" s="37"/>
-    </row>
-    <row r="58" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AS57" s="57"/>
+    </row>
+    <row r="58" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="49"/>
-      <c r="D58" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="V58" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="22"/>
-      <c r="AB58" s="22"/>
-      <c r="AC58" s="22"/>
-      <c r="AD58" s="22"/>
-      <c r="AE58" s="22"/>
-      <c r="AF58" s="22"/>
-      <c r="AG58" s="22"/>
-      <c r="AH58" s="23"/>
+      <c r="I58" s="33"/>
       <c r="AI58" s="37"/>
-    </row>
-    <row r="59" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AS58" s="57"/>
+    </row>
+    <row r="59" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="49"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="39"/>
       <c r="I59" s="33"/>
-      <c r="V59" s="41"/>
-      <c r="AH59" s="37"/>
       <c r="AI59" s="37"/>
-    </row>
-    <row r="60" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AO59" s="57"/>
+    </row>
+    <row r="60" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="49"/>
-      <c r="D60" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="22"/>
-      <c r="T60" s="22"/>
-      <c r="U60" s="22"/>
-      <c r="V60" s="22"/>
-      <c r="W60" s="22"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="22"/>
-      <c r="AB60" s="22"/>
-      <c r="AC60" s="22"/>
-      <c r="AD60" s="22"/>
-      <c r="AE60" s="22"/>
-      <c r="AF60" s="22"/>
-      <c r="AG60" s="22"/>
-      <c r="AH60" s="23"/>
       <c r="AI60" s="37"/>
     </row>
-    <row r="61" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="49"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
-      <c r="V61" s="30"/>
-      <c r="W61" s="30"/>
-      <c r="X61" s="30"/>
-      <c r="Y61" s="30"/>
-      <c r="Z61" s="30"/>
-      <c r="AA61" s="30"/>
-      <c r="AB61" s="30"/>
-      <c r="AC61" s="30"/>
-      <c r="AD61" s="30"/>
-      <c r="AE61" s="30"/>
-      <c r="AF61" s="30"/>
-      <c r="AG61" s="30"/>
-      <c r="AH61" s="32"/>
       <c r="AI61" s="37"/>
     </row>
-    <row r="62" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="49"/>
       <c r="AI62" s="37"/>
     </row>
-    <row r="63" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="49"/>
       <c r="AI63" s="37"/>
     </row>
-    <row r="64" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:54" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="49"/>
-      <c r="B64" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="AI64" s="37"/>
     </row>
     <row r="65" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -7949,9 +7254,6 @@
     </row>
     <row r="66" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="49"/>
-      <c r="D66" s="44" t="s">
-        <v>143</v>
-      </c>
       <c r="AI66" s="37"/>
     </row>
     <row r="67" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -7960,9 +7262,6 @@
     </row>
     <row r="68" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="49"/>
-      <c r="E68" s="44" t="s">
-        <v>144</v>
-      </c>
       <c r="AI68" s="37"/>
     </row>
     <row r="69" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -7974,12 +7273,7 @@
       <c r="AI70" s="37"/>
     </row>
     <row r="71" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C71" s="44" t="s">
-        <v>145</v>
-      </c>
+      <c r="A71" s="49"/>
       <c r="AI71" s="37"/>
     </row>
     <row r="72" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -8024,11 +7318,8 @@
       <c r="AI73" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
     <mergeCell ref="O16:U16"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="J46:T46"/>
-    <mergeCell ref="U46:AB46"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="B16:N16"/>
@@ -8044,7 +7335,7 @@
   <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -8090,16 +7381,16 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2" s="99" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="B2" s="100"/>
       <c r="C2" s="100"/>
-      <c r="D2" s="153" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="154"/>
+      <c r="D2" s="172" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="173"/>
       <c r="F2" s="64" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
@@ -8134,12 +7425,12 @@
       <c r="A3" s="101"/>
       <c r="B3" s="102"/>
       <c r="C3" s="102"/>
-      <c r="D3" s="155" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="156"/>
+      <c r="D3" s="174" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="175"/>
       <c r="F3" s="64" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
@@ -8171,15 +7462,15 @@
       <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="150" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="152"/>
+      <c r="A4" s="169" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="171"/>
       <c r="F4" s="35" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="G4" s="67"/>
       <c r="H4" s="67"/>
@@ -8211,13 +7502,13 @@
       <c r="AH4" s="68"/>
     </row>
     <row r="5" spans="1:34" ht="18" x14ac:dyDescent="0.4">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="159"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="178"/>
       <c r="F5" s="21"/>
       <c r="G5" s="69"/>
       <c r="H5" s="69"/>
@@ -8249,15 +7540,15 @@
       <c r="AH5" s="70"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="152"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="171"/>
       <c r="F6" s="25" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
@@ -8279,7 +7570,7 @@
       <c r="X6" s="65"/>
       <c r="Y6" s="65"/>
       <c r="Z6" s="65" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="AA6" s="65"/>
       <c r="AB6" s="65"/>
@@ -8292,14 +7583,14 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A7" s="103" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="B7" s="104"/>
       <c r="C7" s="104"/>
       <c r="D7" s="104"/>
       <c r="E7" s="105"/>
       <c r="F7" s="71" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="G7" s="69"/>
       <c r="H7" s="69"/>
@@ -8404,7 +7695,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A10" s="99" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="B10" s="100"/>
       <c r="C10" s="100"/>
@@ -8447,7 +7738,7 @@
       <c r="D11" s="111"/>
       <c r="E11" s="111"/>
       <c r="F11" s="79" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="G11" s="83"/>
       <c r="H11" s="83"/>
@@ -8483,7 +7774,7 @@
       <c r="F12" s="79"/>
       <c r="G12" s="83"/>
       <c r="H12" s="33" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="J12" s="83"/>
       <c r="K12" s="83"/>
@@ -8552,7 +7843,7 @@
       <c r="D14" s="111"/>
       <c r="E14" s="111"/>
       <c r="F14" s="33" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="G14" s="83"/>
       <c r="J14" s="83"/>
@@ -8588,7 +7879,7 @@
       <c r="D15" s="111"/>
       <c r="E15" s="111"/>
       <c r="H15" s="33" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="J15" s="83"/>
       <c r="K15" s="83"/>
@@ -8623,7 +7914,7 @@
       <c r="D16" s="111"/>
       <c r="E16" s="111"/>
       <c r="H16" s="33" t="s">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="I16" s="83"/>
       <c r="J16" s="83"/>
@@ -8658,7 +7949,7 @@
       <c r="D17" s="111"/>
       <c r="E17" s="111"/>
       <c r="H17" s="33" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="M17" s="83"/>
       <c r="N17" s="83"/>
@@ -8690,10 +7981,10 @@
       <c r="D18" s="111"/>
       <c r="E18" s="111"/>
       <c r="F18" s="33" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="K18" s="83"/>
       <c r="L18" s="83"/>
@@ -8728,7 +8019,7 @@
       <c r="E19" s="111"/>
       <c r="G19" s="83"/>
       <c r="H19" s="33" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="I19" s="83"/>
       <c r="J19" s="83"/>
@@ -8764,7 +8055,7 @@
       <c r="E20" s="111"/>
       <c r="G20" s="83"/>
       <c r="H20" s="33" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="I20" s="83"/>
       <c r="J20" s="83"/>
@@ -8801,7 +8092,7 @@
       <c r="E21" s="111"/>
       <c r="G21" s="83"/>
       <c r="H21" s="33" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="I21" s="83"/>
       <c r="J21" s="83"/>
@@ -8838,7 +8129,7 @@
       <c r="E22" s="111"/>
       <c r="G22" s="83"/>
       <c r="H22" s="33" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="I22" s="83"/>
       <c r="J22" s="83"/>
@@ -8874,7 +8165,7 @@
       <c r="D23" s="111"/>
       <c r="E23" s="111"/>
       <c r="F23" s="33" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="G23" s="83"/>
       <c r="I23" s="83"/>
@@ -8913,7 +8204,7 @@
       <c r="F24" s="31"/>
       <c r="G24" s="29"/>
       <c r="H24" s="33" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
@@ -8959,7 +8250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F760B417-FF4C-4CD8-9501-2AF4517D0055}">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="F1" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -8979,7 +8270,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" s="114" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="B2" s="115"/>
       <c r="C2" s="115"/>
@@ -8987,7 +8278,7 @@
       <c r="E2" s="115"/>
       <c r="F2" s="116"/>
       <c r="G2" s="92" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="H2" s="91"/>
       <c r="I2" s="91"/>
@@ -9013,7 +8304,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="114" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="B3" s="115"/>
       <c r="C3" s="115"/>
@@ -9029,7 +8320,7 @@
       <c r="M3" s="115"/>
       <c r="N3" s="115"/>
       <c r="O3" s="114" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="P3" s="117"/>
       <c r="Q3" s="115"/>
@@ -9047,7 +8338,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="94" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="B4" s="91"/>
       <c r="C4" s="91"/>
@@ -9078,7 +8369,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="94" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="B5" s="91"/>
       <c r="C5" s="91"/>
@@ -9110,7 +8401,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" s="94" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="B6" s="91"/>
       <c r="C6" s="91"/>
@@ -9142,7 +8433,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="94" t="s">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="B7" s="91"/>
       <c r="C7" s="91"/>
@@ -9158,7 +8449,7 @@
       <c r="M7" s="91"/>
       <c r="N7" s="91"/>
       <c r="O7" s="94" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="P7" s="95"/>
       <c r="Q7" s="91"/>
@@ -9175,8 +8466,8 @@
       <c r="AB7" s="96"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A8" s="132" t="s">
-        <v>191</v>
+      <c r="A8" s="131" t="s">
+        <v>100</v>
       </c>
       <c r="B8" s="91"/>
       <c r="C8" s="91"/>
@@ -9192,7 +8483,7 @@
       <c r="M8" s="91"/>
       <c r="N8" s="91"/>
       <c r="O8" s="94" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="P8" s="95"/>
       <c r="Q8" s="91"/>
@@ -9210,7 +8501,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" s="87" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="B9" s="91"/>
       <c r="C9" s="91"/>
@@ -9226,7 +8517,7 @@
       <c r="M9" s="91"/>
       <c r="N9" s="91"/>
       <c r="O9" s="94" t="s">
-        <v>226</v>
+        <v>135</v>
       </c>
       <c r="P9" s="95"/>
       <c r="Q9" s="91"/>
@@ -9244,7 +8535,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" s="94" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="C10" s="91"/>
       <c r="D10" s="91"/>
@@ -9275,7 +8566,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="87" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="B11" s="91"/>
       <c r="C11" s="91"/>
@@ -9307,7 +8598,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="94" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="B12" s="91"/>
       <c r="C12" s="91"/>
@@ -9339,7 +8630,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="94" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="B13" s="91"/>
       <c r="C13" s="91"/>
@@ -9371,7 +8662,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" s="94" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="B14" s="91"/>
       <c r="C14" s="91"/>
@@ -10010,7 +9301,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C224E6F-39CB-44CC-BBB4-84CAA027DEF5}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="75" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -10028,582 +9319,558 @@
     <col min="7" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="125" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="164" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="165" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="126">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="140" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="141" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="125">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="C2" s="122" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="162" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="160"/>
-    </row>
-    <row r="3" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="126">
+        <v>74</v>
+      </c>
+      <c r="D2" s="152" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="125">
         <f t="shared" ref="A3:A39" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="161" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="160"/>
-    </row>
-    <row r="4" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="126">
+        <v>74</v>
+      </c>
+      <c r="D3" s="151" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="125">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="133" t="s">
-        <v>202</v>
+      <c r="B4" s="132" t="s">
+        <v>111</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="161" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="160"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="126">
+        <v>74</v>
+      </c>
+      <c r="D4" s="151" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="125">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="131" t="s">
-        <v>203</v>
+      <c r="B5" s="130" t="s">
+        <v>112</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="166" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="160"/>
-    </row>
-    <row r="6" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="126">
+        <v>76</v>
+      </c>
+      <c r="D5" s="142" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="125">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="118" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="161" t="s">
-        <v>219</v>
-      </c>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="160"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="126">
+        <v>74</v>
+      </c>
+      <c r="D6" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="125">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="118" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="161" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="160"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="126">
+        <v>76</v>
+      </c>
+      <c r="D7" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="125">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="118" t="s">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="161" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="160"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="126">
+        <v>74</v>
+      </c>
+      <c r="D8" s="151" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="125">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="118" t="s">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="160"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="126">
+        <v>76</v>
+      </c>
+      <c r="D9" s="151" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="125">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="118" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="161" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="160"/>
-    </row>
-    <row r="11" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="126">
+        <v>76</v>
+      </c>
+      <c r="D10" s="151" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="125">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="161" t="s">
-        <v>216</v>
-      </c>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="160"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="126">
+        <v>74</v>
+      </c>
+      <c r="D11" s="151" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="125">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="119" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="161" t="s">
-        <v>217</v>
-      </c>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="160"/>
-    </row>
-    <row r="13" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="126">
+        <v>74</v>
+      </c>
+      <c r="D12" s="151" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="125">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="118" t="s">
-        <v>207</v>
+        <v>116</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="161" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="160"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="126">
+        <v>76</v>
+      </c>
+      <c r="D13" s="151" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="125">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="118" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="161" t="s">
-        <v>219</v>
-      </c>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="160"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="126">
+        <v>74</v>
+      </c>
+      <c r="D14" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="125">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="118" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="161" t="s">
-        <v>220</v>
-      </c>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="160"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="126">
+        <v>76</v>
+      </c>
+      <c r="D15" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="125">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="123" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="161" t="s">
-        <v>223</v>
-      </c>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="160"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="126">
+        <v>76</v>
+      </c>
+      <c r="D16" s="151" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="125">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="161" t="s">
-        <v>216</v>
-      </c>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="160"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="126">
+        <v>74</v>
+      </c>
+      <c r="D17" s="151" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="125">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="118" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="161" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="160"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="126">
+        <v>74</v>
+      </c>
+      <c r="D18" s="151" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="125">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="118"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="163"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="126">
+      <c r="C19" s="126"/>
+      <c r="D19" s="139"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="125">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="118"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="128"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="126">
+      <c r="C20" s="126"/>
+      <c r="D20" s="127"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="125">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="120"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="128"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="126">
+      <c r="C21" s="126"/>
+      <c r="D21" s="127"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="125">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="128"/>
-      <c r="I22" s="160"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="126">
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="125">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="128"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="126">
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="127"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="125">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="128"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="126">
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="127"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="125">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="128"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="126">
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="127"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="125">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="128"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="126">
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="127"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="125">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="128"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="126">
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="127"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="125">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="128"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="126">
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="127"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="125">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="127"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="128"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="126">
+      <c r="B29" s="126"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="127"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="125">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="128"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="126">
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="127"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="125">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="128"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="126">
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="127"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="125">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="128"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="127"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="126">
+      <c r="A33" s="125">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="127"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="128"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="127"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="126">
+      <c r="A34" s="125">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="127"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="128"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="127"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="126">
+      <c r="A35" s="125">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="127"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="128"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="127"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="126">
+      <c r="A36" s="125">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="130"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="129"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="126">
+      <c r="A37" s="125">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="128"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="127"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="126">
+      <c r="A38" s="125">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="127"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="128"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="127"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="126">
+      <c r="A39" s="125">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="128"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="127"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" deleteRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="D17:I17"/>
@@ -10614,12 +9881,6 @@
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
